--- a/data/long_bre/P24_5-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_5-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>115,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>102,49%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36,6%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 13,41</t>
+          <t>-8,75; 11,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 16,62</t>
+          <t>-0,02; 16,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 12,95</t>
+          <t>-1,6; 13,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 132,43</t>
+          <t>-3,85; 15,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,89; 356,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 100,98</t>
+          <t>-38,53; 99,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 376,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,1; 104,8</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-20,04; 137,99</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,26</t>
+          <t>-14,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,16</t>
+          <t>-26,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,21</t>
+          <t>-19,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,57%</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,93%</t>
+          <t>-19,67%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-36,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -7,27</t>
+          <t>-28,82; -1,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 0,48</t>
+          <t>-39,3; -13,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,62; -5,5</t>
+          <t>-28,58; -9,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,91; -9,67</t>
+          <t>-12,4; 22,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,46; -1,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,06; -8,41</t>
+          <t>-35,25; -2,29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-49,37; -19,43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-38,33; -14,09</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-20,47; 65,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,3</t>
+          <t>13,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,1</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>123,9%</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>74,06%</t>
+          <t>172,12%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96,92%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>88,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-22,15%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 20,08</t>
+          <t>2,9; 22,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 19,78</t>
+          <t>4,76; 29,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 18,27</t>
+          <t>4,93; 20,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,98; 297,33</t>
+          <t>-34,0; 6,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 109,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 162,56</t>
+          <t>2,16; 546,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19,95; 243,77</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27,03; 185,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-63,79; 33,43</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 12,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 63,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 40,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 53,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,27</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,98</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,68%</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>39,54%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,85; -3,18</t>
+          <t>-2,9; 16,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -5,55</t>
+          <t>-10,47; 6,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 0,7</t>
+          <t>-1,7; 10,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -5,93</t>
+          <t>-10,54; 6,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,93; -10,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 1,49</t>
+          <t>-13,95; 106,59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-33,8; 38,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 55,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-29,55; 26,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-12,06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>-11,45</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>-20,72%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-20,44%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-13,13%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-12,1%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 10,19</t>
+          <t>-21,91; -2,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 17,78</t>
+          <t>-20,55; -2,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 8,85</t>
+          <t>-13,84; 0,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 64,63</t>
+          <t>-14,41; 2,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,2; 100,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 43,26</t>
+          <t>-34,36; -4,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-33,29; -5,76</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 1,06</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; 6,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>12,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>65,31%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>34,41%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 11,33</t>
+          <t>-4,16; 13,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 13,13</t>
+          <t>6,36; 20,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 14,22</t>
+          <t>-4,87; 8,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 56,59</t>
+          <t>-0,2; 14,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 91,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 65,27</t>
+          <t>-17,18; 76,47</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27,84; 122,7</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; 40,06</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 85,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-29,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,29; -0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,23; -8,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,09; -0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,76; -16,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,8; -6,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>37,48%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>40,43%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29,3%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 11,54</t>
+          <t>0,14; 17,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 16,17</t>
+          <t>-1,34; 13,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 9,03</t>
+          <t>0,51; 13,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 72,16</t>
+          <t>-2,75; 14,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,78; 64,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 50,06</t>
+          <t>0,57; 91,64</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; 103,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 62,04</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; 65,17</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-16,93</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>-15,26</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>-9,36</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>-28,37%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-29,01%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-19,04%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-18,55%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,25</t>
+          <t>-26,8; -7,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 8,4</t>
+          <t>-24,51; -6,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,21</t>
+          <t>-16,91; -1,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 47,93</t>
+          <t>-17,45; -0,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 53,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,19; 46,21</t>
+          <t>-41,65; -12,83</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-41,85; -13,66</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,77; -3,89</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-31,78; -1,16</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-14,72</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-18,19%</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-25,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>48,47%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -5,6</t>
+          <t>-0,32; 15,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -9,2</t>
+          <t>-0,45; 16,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,35; -4,7</t>
+          <t>-5,54; 8,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-25,22; -9,81</t>
+          <t>-4,84; 10,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-33,17; -17,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -8,84</t>
+          <t>-4,43; 117,84</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 62,72</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-20,73; 51,3</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-17,78; 52,78</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,58; 14,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>12,32; 66,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,88; 69,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 41,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>7,95</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-1,01%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>52,96%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 6,53</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 16,95</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-26,83; 32,4</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 166,44</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-6,28</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-17,8</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-10,53%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-29,77%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-13,81; 2,11</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-28,62; -3,44</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-21,65; 3,5</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-44,49; -8,33</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9,84</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>39,8%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>39,04%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 12,0</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 20,91</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 87,0</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 111,28</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>5,91</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 8,67</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 8,36</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 9,85</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 7,38</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 44,97</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 53,69</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 49,47</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-9,45; 32,37</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-11,11</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-15,72</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-10,54</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-18,28%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-27,04%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-18,58%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-10,49%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; -6,14</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-20,52; -10,51</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; -5,78</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 2,23</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-25,73; -10,74</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-34,04; -19,18</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-25,76; -10,86</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-19,74; 4,98</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>6,8</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>11,77</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>40,11%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>49,95%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 10,72</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>7,41; 16,38</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 9,05</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 7,38</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 71,13</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>27,32; 77,85</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 48,42</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-19,01; 35,68</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_5-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_5-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
